--- a/AllenIdicula.xlsx
+++ b/AllenIdicula.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Time In</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Optimized obsolete data with Adonnai in order to free up space on the memory arrays and promote an efficient and clean data storage setup.</t>
+  </si>
+  <si>
+    <t>Reprogrammed countdown timer for dashboard. Able to remove the foreground and background from the URL as a query and now able to load these two from the CSS. Also removed unneeded link from bottom of page.</t>
   </si>
 </sst>
 </file>
@@ -467,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +519,7 @@
       </c>
       <c r="G2" s="8">
         <f>SUM(D2:D50)</f>
-        <v>1.4875000000000003</v>
+        <v>1.5937500000000002</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -753,14 +756,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>0.60277777777777775</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.7090277777777777</v>
+      </c>
+      <c r="C16" s="4">
+        <v>42072</v>
+      </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="6"/>
+        <v>0.10624999999999996</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>

--- a/AllenIdicula.xlsx
+++ b/AllenIdicula.xlsx
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +519,7 @@
       </c>
       <c r="G2" s="8">
         <f>SUM(D2:D50)</f>
-        <v>1.5937500000000002</v>
+        <v>0.99097222222222248</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -775,11 +775,16 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="7">
+        <v>0.60277777777777775</v>
+      </c>
       <c r="B17" s="7"/>
+      <c r="C17" s="4">
+        <v>42074</v>
+      </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.60277777777777775</v>
       </c>
       <c r="E17" s="6"/>
     </row>

--- a/AllenIdicula.xlsx
+++ b/AllenIdicula.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Time In</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Reprogrammed countdown timer for dashboard. Able to remove the foreground and background from the URL as a query and now able to load these two from the CSS. Also removed unneeded link from bottom of page.</t>
+  </si>
+  <si>
+    <t>Reprogrammed the auto sizing that was hard coded in the HTML, and replaced it with a smarter, puncuated sizing function. This would allow for a standarized set of sizes to be picked from using simple conditional statements related to the width and height of the viewing monitor.</t>
   </si>
 </sst>
 </file>
@@ -470,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,7 +777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>0.60277777777777775</v>
       </c>
@@ -786,7 +789,9 @@
         <f t="shared" si="0"/>
         <v>-0.60277777777777775</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>

--- a/AllenIdicula.xlsx
+++ b/AllenIdicula.xlsx
@@ -474,7 +474,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +522,7 @@
       </c>
       <c r="G2" s="8">
         <f>SUM(D2:D50)</f>
-        <v>0.99097222222222248</v>
+        <v>1.7034722222222225</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -781,13 +781,15 @@
       <c r="A17" s="7">
         <v>0.60277777777777775</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="7">
+        <v>0.71250000000000002</v>
+      </c>
       <c r="C17" s="4">
         <v>42074</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>-0.60277777777777775</v>
+        <v>0.10972222222222228</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>21</v>

--- a/AllenIdicula.xlsx
+++ b/AllenIdicula.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Time In</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Reprogrammed the auto sizing that was hard coded in the HTML, and replaced it with a smarter, puncuated sizing function. This would allow for a standarized set of sizes to be picked from using simple conditional statements related to the width and height of the viewing monitor.</t>
+  </si>
+  <si>
+    <t>Updated the resize javascript file to be able to detect mouse hovering and update visually accordingly.</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +525,7 @@
       </c>
       <c r="G2" s="8">
         <f>SUM(D2:D50)</f>
-        <v>1.7034722222222225</v>
+        <v>1.7972222222222225</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -795,14 +798,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="C18" s="4">
+        <v>42079</v>
+      </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="6"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>

--- a/AllenIdicula.xlsx
+++ b/AllenIdicula.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Time In</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Updated the resize javascript file to be able to detect mouse hovering and update visually accordingly.</t>
+  </si>
+  <si>
+    <t>Attempted to implement the shake method from JQueryUI and initially failed. Researched documentation and solutions and eventually stumbled upon different API libraries and moved the function into the HTML, which caused everything to work correctly.</t>
   </si>
 </sst>
 </file>
@@ -476,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +528,7 @@
       </c>
       <c r="G2" s="8">
         <f>SUM(D2:D50)</f>
-        <v>1.7972222222222225</v>
+        <v>1.9055555555555559</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -816,14 +819,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="C19" s="4">
+        <v>42086</v>
+      </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="6"/>
+        <v>0.10833333333333339</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>

--- a/AllenIdicula.xlsx
+++ b/AllenIdicula.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Time In</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Attempted to implement the shake method from JQueryUI and initially failed. Researched documentation and solutions and eventually stumbled upon different API libraries and moved the function into the HTML, which caused everything to work correctly.</t>
+  </si>
+  <si>
+    <t>Updated the HTML's behavior in order to display different movements depending on the location. Observed and assisted other interns to be exposed to different departments.</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="E21" sqref="A1:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +531,7 @@
       </c>
       <c r="G2" s="8">
         <f>SUM(D2:D50)</f>
-        <v>1.9055555555555559</v>
+        <v>1.505555555555556</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -837,14 +840,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C20" s="4">
+        <v>42088</v>
+      </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="6"/>
+        <v>-0.4</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>

--- a/AllenIdicula.xlsx
+++ b/AllenIdicula.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Time In</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>Updated the HTML's behavior in order to display different movements depending on the location. Observed and assisted other interns to be exposed to different departments.</t>
+  </si>
+  <si>
+    <t>Reviewed concepts of Vmware, vCenter, QEMU, KVM, Abstract Hardware, the ability fo manage processes across servers, remote management, Open Stack, hypervisors, the difference between Network Attached Sotrage and Storage Area Networks.</t>
+  </si>
+  <si>
+    <t>q</t>
   </si>
 </sst>
 </file>
@@ -483,7 +489,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E21" sqref="A1:E50"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +537,7 @@
       </c>
       <c r="G2" s="8">
         <f>SUM(D2:D50)</f>
-        <v>1.505555555555556</v>
+        <v>1.380555555555556</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -845,27 +851,34 @@
         <v>0.625</v>
       </c>
       <c r="B20" s="7">
-        <v>0.22500000000000001</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="C20" s="4">
         <v>42088</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>0.625</v>
+      </c>
       <c r="B21" s="7"/>
+      <c r="C21" s="4">
+        <v>42093</v>
+      </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="6"/>
+        <v>-0.625</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
@@ -874,7 +887,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>

--- a/AllenIdicula.xlsx
+++ b/AllenIdicula.xlsx
@@ -96,7 +96,7 @@
     <t>Reviewed concepts of Vmware, vCenter, QEMU, KVM, Abstract Hardware, the ability fo manage processes across servers, remote management, Open Stack, hypervisors, the difference between Network Attached Sotrage and Storage Area Networks.</t>
   </si>
   <si>
-    <t>q</t>
+    <t>Returned all materials…</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +537,7 @@
       </c>
       <c r="G2" s="8">
         <f>SUM(D2:D50)</f>
-        <v>1.380555555555556</v>
+        <v>1.4847222222222225</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -868,24 +868,31 @@
       <c r="A21" s="7">
         <v>0.625</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="7">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="C21" s="4">
         <v>42093</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>-0.625</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+      <c r="A22" s="7">
+        <v>0.625</v>
+      </c>
       <c r="B22" s="7"/>
+      <c r="C22" s="4">
+        <v>42095</v>
+      </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.625</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>26</v>
